--- a/data/trans_dic/P16A02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,07%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,72%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>16,23; 20,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>21,78; 27,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>20,96; 27,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>30,38; 38,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>29,2; 34,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>38,18; 43,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>38,39; 45,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>57,11; 62,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>24,28; 27,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>31,95; 36,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>31,71; 36,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>47,26; 52,07</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,1%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>10,17; 13,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>14,58; 18,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>15,5; 19,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>19,95; 24,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>16,68; 20,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>27,35; 31,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>25,39; 29,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>33,65; 49,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>13,84; 16,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>21,07; 23,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>20,75; 23,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>27,75; 37,09</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,76%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>9,06; 14,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>8,15; 13,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>15,08; 22,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>16,54; 23,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>16,08; 23,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>22,44; 31,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>22,69; 30,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>26,64; 32,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>13,1; 17,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>16,06; 21,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>19,79; 24,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>22,57; 27,07</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,82%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,79; 15,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,46; 19,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,47; 20,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>22,01; 25,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>22,27; 25,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>31,82; 35,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,65; 32,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>38,61; 47,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>17,95; 19,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>24,86; 26,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>24,07; 26,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>31,31; 36,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>59,79%</t>
+          <t>59,77%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>49,72%</t>
+          <t>49,44%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,38; 38,02</t>
+          <t>30,46; 38,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,11; 62,69</t>
+          <t>57,07; 62,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>47,26; 52,07</t>
+          <t>46,94; 51,85</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>29,93%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,95; 24,4</t>
+          <t>14,84; 23,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,65; 49,07</t>
+          <t>32,61; 58,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,75; 37,09</t>
+          <t>25,15; 39,55</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>24,88%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,54; 23,3</t>
+          <t>16,73; 23,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,64; 32,8</t>
+          <t>26,87; 33,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,57; 27,07</t>
+          <t>22,58; 27,3</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>41,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>32,48%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,01; 25,32</t>
+          <t>17,64; 24,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,61; 47,02</t>
+          <t>37,57; 51,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,31; 36,38</t>
+          <t>29,18; 38,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,23; 20,99</t>
+          <t>16,33; 20,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,78; 27,36</t>
+          <t>21,78; 27,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,96; 27,04</t>
+          <t>21,3; 27,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,46; 38,22</t>
+          <t>30,7; 38,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,2; 34,58</t>
+          <t>29,51; 34,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,18; 43,78</t>
+          <t>38,38; 43,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,39; 45,07</t>
+          <t>38,4; 44,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,07; 62,47</t>
+          <t>56,93; 62,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,28; 27,96</t>
+          <t>24,16; 27,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31,95; 36,02</t>
+          <t>32,08; 36,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,71; 36,33</t>
+          <t>31,69; 36,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>46,94; 51,85</t>
+          <t>47,32; 51,8</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,17; 13,34</t>
+          <t>10,28; 13,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,58; 18,06</t>
+          <t>14,43; 17,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,5; 19,07</t>
+          <t>15,45; 18,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,84; 23,76</t>
+          <t>14,14; 23,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 20,66</t>
+          <t>16,82; 20,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,35; 31,66</t>
+          <t>27,1; 31,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,39; 29,42</t>
+          <t>25,21; 29,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,61; 58,62</t>
+          <t>32,1; 55,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,84; 16,45</t>
+          <t>13,88; 16,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,07; 23,98</t>
+          <t>21,1; 24,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,75; 23,33</t>
+          <t>20,53; 23,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,15; 39,55</t>
+          <t>25,28; 40,91</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 14,32</t>
+          <t>9,09; 14,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,95</t>
+          <t>8,0; 14,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,08; 22,1</t>
+          <t>15,07; 21,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,73; 23,66</t>
+          <t>16,52; 23,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,08; 23,03</t>
+          <t>15,74; 23,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,44; 31,22</t>
+          <t>22,77; 31,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,69; 30,44</t>
+          <t>22,2; 30,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,87; 33,03</t>
+          <t>26,38; 32,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,1; 17,5</t>
+          <t>12,88; 17,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,06; 21,41</t>
+          <t>15,85; 21,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,79; 24,85</t>
+          <t>19,92; 24,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,58; 27,3</t>
+          <t>22,81; 27,37</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,79; 15,17</t>
+          <t>12,8; 15,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,46; 19,21</t>
+          <t>16,56; 19,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,47; 20,29</t>
+          <t>17,5; 20,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,64; 24,83</t>
+          <t>17,79; 24,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,27; 25,25</t>
+          <t>22,52; 25,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,82; 35,14</t>
+          <t>31,78; 35,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,65; 32,72</t>
+          <t>29,54; 32,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,57; 51,98</t>
+          <t>37,74; 54,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 19,93</t>
+          <t>18,03; 19,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,86; 26,97</t>
+          <t>24,73; 26,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,07; 26,23</t>
+          <t>24,01; 26,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,18; 38,5</t>
+          <t>29,11; 38,48</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>191995</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>240646</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>181320</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>176756</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>420717</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>545373</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>413629</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>449881</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>612712</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>786019</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>594949</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>626637</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>168463; 215724</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>212128; 269387</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>160679; 205423</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>158071; 197665</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>388106; 453879</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>511849; 583391</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>381947; 447259</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>428449; 469970</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>566979; 656377</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>740158; 831530</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>554312; 631910</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>599865; 656546</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>199951</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>318441</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>354581</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>470523</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>294730</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>518688</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>541859</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>884546</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>494681</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>837130</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>896441</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1355069</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>174053; 227635</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>282858; 351503</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>320787; 390673</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>323806; 544106</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>267052; 329141</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>475870; 553081</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>501275; 580160</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>718138; 1251007</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>455348; 534821</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>784088; 893125</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>834564; 953608</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1144664; 1852083</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>63848</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>51569</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>100147</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>128330</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>91170</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>122744</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>144749</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>196889</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>155018</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>174313</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>244896</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>325220</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>50100; 79285</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38429; 67626</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>82413; 119541</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>106845; 152427</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>74982; 109950</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>104201; 143464</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>121889; 166685</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>174257; 217334</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>132347; 179694</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>148702; 201051</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>218302; 272565</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>298144; 357800</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2307</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1247</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1664</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3190</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>455794</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>610656</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>636048</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>775610</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>806617</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1186806</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1100237</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1531316</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1262411</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1797462</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1736286</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2306926</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>419332; 499643</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>565558; 657445</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>590958; 682996</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>614117; 858275</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>760960; 859025</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1127197; 1245441</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1043301; 1160050</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1377561; 1982829</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1199751; 1327515</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1721752; 1868573</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1659162; 1812683</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2067673; 2733240</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>